--- a/BangTuDanhGiaDiem_Test01.xlsx
+++ b/BangTuDanhGiaDiem_Test01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC_TAP\NAM-CUOI\CD-Web1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\LeVanHuy_16211TT1794_Project_CDWeb1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -234,6 +234,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -242,15 +251,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -542,12 +542,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.15" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -562,15 +562,15 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -587,7 +587,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -602,7 +602,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -632,7 +632,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -649,7 +649,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="63">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.15" customHeight="1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -679,7 +679,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="79.150000000000006" customHeight="1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
@@ -694,7 +694,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -722,19 +722,19 @@
         <v>19</v>
       </c>
       <c r="E12" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12">
         <f>SUM(C3:C12)</f>
         <v>100</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
